--- a/library/export_dtr.xlsx
+++ b/library/export_dtr.xlsx
@@ -121,17 +121,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,6 +148,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441473</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6708923" y="104775"/>
+          <a:ext cx="949177" cy="954826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,7 +465,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,53 +481,53 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -488,5 +537,6 @@
     <mergeCell ref="D5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>